--- a/Scraping/~DataCollect.xlsx
+++ b/Scraping/~DataCollect.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fxcker\Documents\GitHub\JourneyGenius\Scraping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7964E0ED-1DC4-4672-8DAB-F6C1D7A2B99B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{137AB631-A993-4A9C-9CB7-057D765A0C49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{9D8865F4-E411-D64A-8851-B3C1FFA33487}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="21600" xr2:uid="{9D8865F4-E411-D64A-8851-B3C1FFA33487}"/>
   </bookViews>
   <sheets>
     <sheet name="Activities" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Restaurants" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="264">
   <si>
     <t>Activity Type</t>
   </si>
@@ -204,9 +205,6 @@
     <t>Nightlife in San Francisco is a constantly changing scene. From cocktails in Union Square to the club scene in SoMa, there are neighborhoods for all types of nightlife. For a different spin on nightlife, a number of museums host 21-and-up events that invite visitors to sip and see special exhibits. Don't leave without catching a drag show at the legendary Oasis. </t>
   </si>
   <si>
-    <t>https://www.sftravel.com/article/28-things-not-to-miss-san-francisco</t>
-  </si>
-  <si>
     <t>Senso-ji</t>
   </si>
   <si>
@@ -378,15 +376,496 @@
     <t>With the first iteration of Borderless in Odaiba, the art collective Teamlab created an endlessly Instagrammable, sumptuous and surreal museum dedicated to multi-sensory digital art. Opened in 2018, the facility, which set the world record for the most visited museum dedicated to a single artist, closed its doors in 2022. However, Borderless 2.0 is set to relocate to a permanent location in the soon-to-open Azabudai Hills mixed-use complex in central Tokyo in early 2024. Boderless consists of installations that feature constantly morphing patterns and designs that seem to flow seamlessly from room to room in a maze-like space. Updated versions of some of the museum’s previous works will be on display, as well as several new installations: a room filled with hundreds of multicolored lights that run along tracks continuously and a series of interactive “light sculptures,” to name a few.</t>
   </si>
   <si>
-    <t>https://www.cntraveler.com/gallery/best-things-to-do-in-tokyo</t>
+    <t>Restaurant Description</t>
+  </si>
+  <si>
+    <t>Restaurant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Price </t>
+  </si>
+  <si>
+    <t>$$$</t>
+  </si>
+  <si>
+    <t>Scoma's Restaurant</t>
+  </si>
+  <si>
+    <t>It’s undeniable that the Fisherman’s Wharf of today may not quite live up to the rose-tinted memories of years gone by. But things remain reliably and pleasantly the same at Scoma’s, the nearly 60-year-old restaurant on the literal dock of the Bay. The menu will satisfy all your touristy seafood cravings for oysters, Dungeness crab cocktail, clam chowder, and cioppino, though the lengthy selections also include a spicy chicken sandwich and pasta with red sauce. Almost as much as the food, the space itself is the draw, whether you sit outside with the sound of lapping waves in the background or inside the wood-paneled dining room decorated with oodles of local sports paraphernalia.</t>
+  </si>
+  <si>
+    <t>Abacá</t>
+  </si>
+  <si>
+    <t>Chef Francis Ang’s Abacá brings contemporary Filipino cuisine to a sunny space on the ground floor of a Fisherman’s Wharf hotel, the plant-filled restaurant further brightened by sunflower yellow banquettes and woven baskets from the southeast Asian archipelago. The dinner menu gives familiar dishes a modern California update — think, seafood pancit topped with smoked bay scallops, and longganisa pork sausage skewered on a thin stick and served with egg yolk and cane vinegar for dipping. Weekend brunch is a real treat, when you can truly appreciate the pastry skills of both Ang and James Beard Award-nominated pastry chef Vince Bugtong in dishes like a chewy pandan mochi waffle and savory ensaymada French toast. </t>
+  </si>
+  <si>
+    <t>Restaurant Nisei</t>
+  </si>
+  <si>
+    <t>Californios alum David Yoshimura channels his Japanese-American upbringing into Nisei, his Michelin-starred debut restaurant where Japanese soul food gets the fine dining treatment. The dining room is a zen retreat with white booths and inky black walls splashed with vibrant local art. In the kitchen, Yoshimura and his team nestle a fresh oyster in a foamy bed of English peas and wasabi and wrap sweet Brentwood corn, fermented blueberries, and buttery uni in sheets of shiny nori. The culmination of the tasting menu may be an array of tsukemono set beside a small cup of bone broth miso soup with duck fat rice and a tender rack of lamb.</t>
+  </si>
+  <si>
+    <t>$$$$</t>
+  </si>
+  <si>
+    <t>Hog Island Oyster Co.</t>
+  </si>
+  <si>
+    <t>There’s no shortage of excellent seafood in this city by the bay, but it’s a true rite of passage to slurp briny bivalves at the Hog Island outpost inside the historic Ferry Building. Plan ahead as the line can stretch for an hour or more during peak times, but if you arrive early (the restaurant opens at 11 a.m. daily) you can look forward to platters of fresh oysters served over ice after being pulled from waters up and down the West Coast. Supplement the feast with fried local anchovies, elegant crudo, or a remarkably good grilled cheese sandwich made with three varieties of melted cheese. With a glass of bubbles in hand and views of the bridge outside, it’s a meal to remember, whether you’re a local or just in town for a weekend. </t>
+  </si>
+  <si>
+    <t>$$</t>
+  </si>
+  <si>
+    <t>Earlier this year City View, one of the city’s favorite spots for dim sum, relocated to this new home at 33 Walter U. Lum Place in Chinatown, in the shadow of Portsmouth Square. It’s a dark and elegant space with comfortable booths and dramatic spotlighting above each table. There are no carts, but the food still shines, including bouncy shrimp and pork-stuffed shumai, impossibly thin and crisp scallion pancakes, and fluffy buns that explode with salted egg yolk custard. Service is prompt and polite making this a good option for a quicker sit-down meal. </t>
+  </si>
+  <si>
+    <t>City View Restaurant</t>
+  </si>
+  <si>
+    <t>It was a big deal for San Francisco when James Beard Award-winning chef Brandon Jew took over the historic Four Seas banquet hall space and opened an ambitious Chinese-American restaurant in the heart of Chinatown. The dining room remains a green-and-white gem of the neighborhood, even following a light renovation earlier this spring. Jew also introduced a new prix-fixe menu format with the option to add on banquet-style plates like some of San Francisco’s best roast duck served with peanut butter hoisin, along with cocktails, beer, and cider.</t>
+  </si>
+  <si>
+    <t>Mister Jiu's</t>
+  </si>
+  <si>
+    <t>This 70-year-old Nob Hill classic is a trip back to a time when plating with tweezers was not yet a thing. The name says it all: House of Prime Rib serves one thing and one thing only, and it does that roast prime rib very, very well. The only choices to make are: meat temperature, cut thickness, mashed or loaded baked potatoes, and martini or Manhattan. Each plate comes with a salad (prepared tableside), creamed spinach, Yorkshire pudding, and potatoes — and of course a hulking piece of beef cut from one of the wheeled meat carts.</t>
+  </si>
+  <si>
+    <t>House of Prime Rib</t>
+  </si>
+  <si>
+    <t>Following an extensive redesign from star designer Ken Fulk, this classic San Francisco restaurant bounced back from the pandemic more impressive than ever. Settle into a luxurious peacock blue booth under the golden glow of romantic spot lighting and let the smooth service staff usher you through a multi-course prix fixe menu from chef and owner Nancy Oakes and chef Dana Younkin. Dishes rotate frequently but stick to the California ethos of seasonal and local, though you can never go wrong with the Berkshire pork chop, served on the bone and cooked over a live fire to a perfect obsidian char. </t>
+  </si>
+  <si>
+    <t>Boulevard</t>
+  </si>
+  <si>
+    <t>These days it might be slightly easier to get a seat at this incredibly exclusive (read: just 10 seats) omakase counter, but for the most part, you’ll need to plan in advance. The effort of getting in the door, however, will be rewarded with an evening of exquisitely decadent small plates and sushi in a surprisingly relaxed and lively atmosphere. Dining at Michelin Guide-listed Friends Only feels almost like attending an intimate dinner party — if your dinner party host served black truffle-topped chawanmushi and a rainbow of uni on a single piece of nigiri. The price tag is a steep $300 before beverages and gratuity, but chef Ray Lee’s other restaurant Akikos makes a slightly more affordable option starting at $150 for lunch or $250 for dinner. </t>
+  </si>
+  <si>
+    <t>Friends Only</t>
+  </si>
+  <si>
+    <t>New Nordic feels remarkably fresh at Sons &amp; Daughters, the fine dining destination that’s been doing the damn thing near Union Square for more than a decade now. But there’s a new executive chef in the kitchen, Harrison Cheney, and he’s blending the acidic, fermented flavors he picked up while working at two Michelin-starred Gastrologik in Stockholm, with Northern California’s pristine seasonal produce. The result is an intimate tasting menu experience that’s elegant, surprising, and warm.</t>
+  </si>
+  <si>
+    <t>Sons &amp; Daughters</t>
+  </si>
+  <si>
+    <t>Octavia is back and that means Melissa Perello and executive chef Nico Pena are once again delivering flawless seasonal menus starring fresh pasta and some of the city’s most unforgettable desserts. There are familiar refrains in the mix, with plates like fresh mozzarella with Jimmy Nardellos and Brentwood corn lasagna with sweet corn and bright chiles emphasizing the breadth of Northern California’s bounty. And of course, the window-fronted space remains as lively and elegant as ever, accented with structural arrangements from cult-favorite florist the Petaler.</t>
+  </si>
+  <si>
+    <t>Pastry superstars Belinda Leong and Michel Suas continue to dominate both California Street — where the duo operates B. Patisserie, b. on the Go, and their latest full-service restaurant Routier — and the San Francisco pastry scene. There’s no shortage of excellent bakers in this city, but Leong’s impossibly buttery and flakey kougin amann are truly iconic. On a first visit, it’s hard to stray from the classic iteration, but when the seasons change it’s an excellent idea to explore the fruit and black sesame variations.</t>
+  </si>
+  <si>
+    <t>Octavia</t>
+  </si>
+  <si>
+    <t>B Patisserie</t>
+  </si>
+  <si>
+    <t>This sister bar to Pacific Cocktail Haven wins points for its one-of-a-kind vibe. Stepping into the dimly lit space, under strings of lights, feels like being transported to a night market in some far-flung corner of the world. The menu doubles down on that idea: Cocktails are sorted by geographic inspiration so customers can travel to Asia with a Red + Blue made with two kinds of rum, ube-coconut cream, and salted jackfruit whip, or voyage to Africa and the Middle East with a sip of the Milk Was a Bad Choice, a clarified cocktail made with gin, sumac, makrut lime, and cold brew.</t>
+  </si>
+  <si>
+    <t>Kona's Street Market</t>
+  </si>
+  <si>
+    <t>At this Korean hotspot in San Francisco’s Japantown, the wait for a table during peak dinner time can stretch long as two hours, and almost every dish on the menu features some kind of preparation of beef: kalbitang (or beef rib soup); beef bibimbap; seolleongtang, the cloudy-white ox bone soup with its noted hangover-curing properties; and, if you think all that won’t be enough, boiled beef brisket that you can order as an appetizer. But the star of the show — and perhaps of the city’s entire Korean restaurant scene — is the kalbijjim, the slow-braised, spicy-sweet, fall-off-the-bone beef short rib stew that is Daeho’s claim to fame.</t>
+  </si>
+  <si>
+    <t>Daeho Kalbijjim &amp; Beef Soup</t>
+  </si>
+  <si>
+    <t>Kin Khao, the more casual sister restaurant to Nari in Japantown, holds a single Michelin star, and for good reason. Here chef Pim Techamuanvivit and chef de cuisine James Slagle give diners a taste of Thai cooking with no holds barred in terms of flavor. Don’t miss the steamed jar of spicy curry mouse called mushroom har mok or the charred local squid, a tart and smoky dish scattered with peanuts and cilantro. Open for lunch and dinner in a hotel near Union Square, the restaurant doesn’t offer as elegant an atmosphere as Nari, but the addictingly bold flavors more than make up for anything you might find lacking in the decor. </t>
+  </si>
+  <si>
+    <t>Kin Khao</t>
+  </si>
+  <si>
+    <t>San Francisco is one of the great Burmese restaurant cities in the U.S., and, though it isn’t the flashiest or the most crowded, Mandalay might be best of the bunch — certainly it’s the one that makes the least compromises to accommodate Western palates, which in general means bigger, punchier flavors. Try the homey samusa soup or any of the fragrant noodle dishes, but whatever you do, don’t skip the best fermented tea leaf salad in town — a rendition of the classic that’s available without lettuce or cabbage to tamp down the deliciously pungent flavors or diminish the outrageous crunch of the nuts and seeds.</t>
+  </si>
+  <si>
+    <t>Mandalay Restaurant</t>
+  </si>
+  <si>
+    <t>Breadbelly</t>
+  </si>
+  <si>
+    <t>There’s a growing number of Asian-American bakeries in and around San Francisco putting fresh twists on classic baked goods and infusing French pastries with sweet ube and meaty chashu. But if you’re only going to check out one, make it Breadbelly, where a team of James Beard Award-nominated fine-dining alums have truly perfected the art of marrying Asian flavors with modern California tastes. The signature lime-green kaya toast topped with coconut-pandan jam and big snowflakes of sea salt is a revelation, but savory sandwiches and daily pastries deserve attention, too. Still closed for indoor dining, Breadbelly offers online ordering for pick-up starting at 10 a.m. — and click quick, as items sell out fast.</t>
+  </si>
+  <si>
+    <t>You could do a whole hell of a lot worse than grabbing a pre- or post-game meal at Birdbox, the fried chicken spinoff from Michelin-starred Birdsong in SoMa. Chef Chris Bleidorn serves super-crispy fried chicken by the box or shoved between sandwich buns and you can have it coated in a choice of finger-licking good flavors like sour cream and onion or the umami-forward Classic Yeast. For those doing it all for the ‘gram, there’s also the famous claw-on Claude the Claw sandwich, a testament to the restaurant’s commitment to sourcing quality chickens only.</t>
+  </si>
+  <si>
+    <t>Birdbox</t>
+  </si>
+  <si>
+    <t>Chef Mourad Lahlou has two striking restaurants: Mourad offers a Michelin-starred fine dining experience downtown, while Aziza serves Moroccan comforts out in the avenues. There’s no wrong choice between the two, but Aziza delivers at a higher level than a neighborhood restaurant has any need to. For dinner, start with addictive harissa cashews and a trio of spreads with pillowy flatbread before taking on plates of hand-rolled couscous, whole branzino, or braised lamb shank. Of course, never skip the basteeya, which comes wrapped in a flaky dough and stuffed with chicken confit and spiced almonds. For weekend brunch, the Moroccan pancakes are not to be missed. </t>
+  </si>
+  <si>
+    <t>Aziza</t>
+  </si>
+  <si>
+    <t>Cinderella Bakery &amp; Cafe</t>
+  </si>
+  <si>
+    <t>Though the small enclave of Russian markets and businesses in the Richmond has contracted over the years, Cinderella Bakery &amp; Cafe endures, thanks in large part to its fresh baked loaves of rye bread, puff pastry perogies, and delicately layered slices of honey cake. On the savory side, don’t skip the Russian dumplings called pelmeni, which can and should be enjoyed with broth and plenty of sour cream. </t>
+  </si>
+  <si>
+    <t>Besides “the” chicken, Zuni's burger, Caesar salad, and bloody mary have all been called the best in the city at various points in the restaurant’s illustrious, 40-plus-year career. Sitting on the edge of Hayes Valley, it’s the utility belt of San Francisco restaurants: good for brunch, for late-night dining, for oysters and a cocktail at the bar, or for a lovely sit-down meal with a date. The chicken, meanwhile, deserves every last bit of praise.  During the pandemic, Zuni started serving takeout for the first time in its storied history — and became the first restaurant in the city to switch over to all reusable takeout containers.</t>
+  </si>
+  <si>
+    <t>Zuni Cafe</t>
+  </si>
+  <si>
+    <t>Under swinging lines of cerulean papel picado, chef Nick Cobarruvias presents a veggie-forward menu of tacos, tostadas, and large plates that’s delightfully fresh and flavorful. There are meaty options, too, including slow-cooked carne con guajillo chile wrapped in soft tortillas made from masa that’s nixtamalized in house. But don’t overlook the hen of the wood huarache, showered with a tangle of tender and savory mushrooms, or the unexpectedly vibrant charred cabbage, sporting dark spots of char and dusted with toasted pecan dukkah. Cocktails are unfussy but well executed; you can’t go wrong with a spicy margarita sipped on the wooden parklet off Haight. </t>
+  </si>
+  <si>
+    <t>Otra</t>
+  </si>
+  <si>
+    <t>$</t>
+  </si>
+  <si>
+    <t>Californios</t>
+  </si>
+  <si>
+    <t>Val Cantu’s two-Michelin-starred Californios came roaring back in spring 2021 with a new home and the same ambitious tasting menu of exquisite cuisine rooted in Mexican traditions. In the former Bar Agricole space in SoMa, Cantu and his team honor Mexican ingredients and cooking techniques – elevating masa to new heights through in-house nixtamalization for handmade tortillas and taking creative liberties with dishes like a puffed pieces of black masa topped with sea urchin and a grilled banana served with a dollop of caviar.</t>
+  </si>
+  <si>
+    <t>Rintaro feels like a secret hideout in the Mission, with a lovely front patio guarded from the street by a bamboo fence. Enter, and find an inviting, wood-clad izakaya from Chez Panisse alum Sylvan Mishima Brackett, whose menu has long drawn a bustling, stylish crowd that lines up before the restaurant even opens for business. Gyoza, yakitori of all kinds, pristine sashimi, and the platonic ideal of fried tori katsu (fried chicken stuffed with Cowgirl Creamery cheese) are all on order.</t>
+  </si>
+  <si>
+    <t>Rintaro</t>
+  </si>
+  <si>
+    <t>On a sunny afternoon or a cool San Francisco evening, there’s perhaps no better place to find comfort than on Biet Rima’s flower-lined patio or inside its cozy dining room with a generous mezze spread before you and a cold Arabic beer in hand. Owner Samir Mogannam turns seasonal produce into simple yet stunning vegetarian-friendly dishes like delicata squash in brown butter with tangy labneh and pine nut dukkah, while the meatier entrees including tender beef kabob and yogurt marinated chicken lend the menu some weight.</t>
+  </si>
+  <si>
+    <t>Beit Rima</t>
+  </si>
+  <si>
+    <t>Poc-Chuc</t>
+  </si>
+  <si>
+    <t>This family-run Mission District regional Mexican mainstay specializes in Yucatecan and Mayan-inspired cuisine, which means lots of smoky, citrus-marinated pork, deeply flavorful turkey mole (served, in the Yucatecan style, as an ink-black soup), and wonderful handmade tortillas. Service could scarcely be more attentive and kind.</t>
+  </si>
+  <si>
+    <t>Step inside this neighborhood wine bar and restaurant and you’ll likely feel like you stumbled into a hidden gem. This isn’t to say that Palm City Wines hasn’t gotten its share of media attention, but rather, that despite being lauded as one of the best places to get a Philly-style hoagie outside of Philadelphia, it retains a laid-back vibe befitting its home in the quiet and notoriously foggy avenues. Roll through (there are no reservations) for a glass of something fun and funky like a dark and fruity Blaufränkisch or a fresh and zippy Sicilian white to pair with one of the massive sandwiches. The Italian American makes a solid choice: Built on a sesame-seeded roll it sports a spread of spicy nduja aioli plus layers of finocchiona, mortadella, mozzarella, arugula, onions, and a dusting of parmesan cheese. </t>
+  </si>
+  <si>
+    <t>Palm City Wines</t>
+  </si>
+  <si>
+    <t>Piglet &amp; Co</t>
+  </si>
+  <si>
+    <t>Chef Chris Yang and partner Marcelle Gonzales Yang put down roots in the Mission for their formerly itinerant businesses Hen-Zhi and El Chino Grande in early 2023. Piglet &amp; Co serves “Asian comfort food” out of a moody space inspired by Taiwanese night markets. The menu changes from week to week but staples include sweet-savory honey walnut shrimp and pork toast, confited Savoy cabbage, and a massive platter of chashao pork ssam. With a liquor license still in the works, beverage options include tea and sodas. Weekend brunch stars dishes such as milk bread French toast and loco moco made with dry-aged, grass-fed beef.</t>
+  </si>
+  <si>
+    <t>After taking a years-long break spurred by the pandemic, Delfina reopened on 18th Street with a fresh new look in October 2022. Co-owners Annie and Craig Stoll are proud to show off a new bar and a new private dining room, where fans old and new can get a taste of the restaurant’s pioneering Cal-Italian cuisine. The spaghetti pomodoro returned to the menu, but as ever, the selection changes just about every day so the kitchen can incorporate whatever’s freshest from the Stoll’s farm in Sonoma.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delfina </t>
+  </si>
+  <si>
+    <t>San Francisco’s only Guamanian restaurant continues to provide newcomers to Chamorro cuisine with a delicious education: stroganoff-like tinaktak with egg noodles, pork ribs over red rice, and an assortment of the Guamanian-style ceviches known as kelaguen — served here on flatbreads, like a taco. The covered outdoor patio means every meal feels something like a beachy party, particularly when the sun in shining on this Mission District restaurant.</t>
+  </si>
+  <si>
+    <t>Prubechu</t>
+  </si>
+  <si>
+    <t>Lazy Bear</t>
+  </si>
+  <si>
+    <t>Yes, Lazy Bear holds two Michelin stars but set aside any expectations of stuffy service and starched white tablecloths. The restaurant describes itself as a “modern dinner party” and while the original communal table has been chopped up and spread out around the dining room, an abundance of staff circulating the floor and an open kitchen make the dining experience both exceptionally professional, a little chaotic, and endlessly fun. By now several of the dishes on the ever-changing menu are staples — for example, the delicate but smoky whipped scrambled egg — but part of the fun is seeing what local and in-season ingredients the team has sourced or foraged for your visit. If you can, go all-in on one of the beverage pairings and a liquid treat for after dinner.  </t>
+  </si>
+  <si>
+    <t>You can’t go wrong with any of chef Corey Lee’s restaurants, whether it’s the black-and-white French bistro Monsieur B in Hayes Valley or his three Michelin-starred Benu in SoMa. But his latest, San Ho Won in the Mission, is where the chef takes things back to his Korean American roots, working with chef Jeong-In Hwang to prepare meticulously charcoal grilled double cut galbi and tender beef tongue. This is a Korean barbecue restaurant unlike any other with elegant seasonal banchan, sizzling stews, and flaky blood sausage and green onion pancakes served in an austere space wrapped in warm woods. </t>
+  </si>
+  <si>
+    <t>SAN HO WON</t>
+  </si>
+  <si>
+    <t>Following a handsome redesign late last year, Flour + Water reopened with a refined new look and the same menu of stellar handmade pasta in February. The pasta tasting menu remains the anchor, spinning diners through an array of uncommon shapes like balsamic vinegar drizzled scarpinocc and fastidiously folded tortellino swimming in an impossibly rich broth. But the a la carte menu offers plenty to explore as well, including a mosaic of fresh crudo, bubble-crusted pizzas, and more fresh pasta options, all of which can be paired with a list of wines focused on Italy and California. </t>
+  </si>
+  <si>
+    <t>Fully revamped in the spring of 2019, Heena Patel’s Dogpatch restaurant shifted away from her initial “California Gujarati” cuisine concept, leaning heavily into the regional Gujarati dishes she grew up eating and launching a family-style vegetarian tasting menu option. The result? One of the most fantastic — and now, meat-free — Indian restaurants in the city. Customers may have never previously tried the smoky, spicy eggplant stew known as ringan no oro. But they’ll happily dig into those bold flavors here.</t>
+  </si>
+  <si>
+    <t>Flour + Water</t>
+  </si>
+  <si>
+    <t>Besharam</t>
+  </si>
+  <si>
+    <t>It wouldn’t be San Francisco without the Mission’s squadron of high-quality taquerias, none better or more famous than this one. Known, in part, for long lines at all times of day, even during the pandemic, La Taq built up an unwaveringly loyal fan base even before it landed its America's Best Burrito title. The carnitas and carne asada are some of the best around; the tacos come wonderfully overloaded; and those burritos are famously served without rice so there’s no carb overload to distract from the quality of the meats.</t>
+  </si>
+  <si>
+    <t>La Taqueria</t>
+  </si>
+  <si>
+    <t>Opened just one week before the shelter-in-place order, the highly anticipated Mission outpost of Reem Assil’s Arab bakery and restaurant faced the tall task of having to adapt and reinvent itself from its earliest days. It’s since evolved into the kind of all-day neighborhood staple that Assil always wanted it to be, with its menu of mana’eesh (topped flatbreads) and ka’ik sesame bread sandwiches (including the decadent, pastry-stuffed Jiddo’s Breakfast), and its brand of warm Arab hospitality.</t>
+  </si>
+  <si>
+    <t>Reem's</t>
+  </si>
+  <si>
+    <t>There are plenty of places to spend big on a night out at a sushi bar in this city, but if you’re looking for something a little more chill — and perhaps, a little less traditional — then this is your spot. Chef Eric Aplin worked at Robin, Akikos, and the now-closed Ichi before opening his own spot. The omakase includes a parade of nigiri that evokes diverse flavors like sweet onion, olive oil, and blue cheese. Plus, there’s a full omakase menu for vegetarian diners, too, meaning you can bring just about anyone along for the ride. </t>
+  </si>
+  <si>
+    <t>Chīsai Sushi Club</t>
+  </si>
+  <si>
+    <t>On cold nights, many of the regulars who crowd Old Mandarin Islamic’s small, scruffy dining room would order one of the spicy Beijing-style hot pots — a warming antidote to the chilly Outer Sunset fog. In general, this San Francisco institution, one of the only places in the city that specializes in Chinese Muslim cuisine, is a great place to feast on lamb — stir-fried with cumin, braised, stuffed inside of dumplings, or boiled in a clay pot. Chile-heads will want to test their endurance against the side dish/condiment known as la si ni, or “spice you to death.” </t>
+  </si>
+  <si>
+    <t>Old Mandarin Islamic Restaurant</t>
+  </si>
+  <si>
+    <t>Azalina's</t>
+  </si>
+  <si>
+    <t>The vibrant four-course menu at Azalina’s is a celebration of Malaysian food, specifically the island of Penang, where the chef Azalina Eusope grew up. Each course demonstrates the diversity of the cuisine, cruising deftly throughout the country’s three major ethnicities and 16 states and territories. As bright as the murals in the dining room, golden bowls of Teochew porridge topped with roe kick off the progression of dishes. Just as colorful are the nonalcoholic drinks like a fizzy blue-pea-and-lemongrass soda. The check arrives in a copy of Peter M. Field’s “The Tenderloin District of San Francisco Through Time,” shining a spotlight on the history of the restaurant’s neighborhood. ELEANORE PARK</t>
+  </si>
+  <si>
+    <t>Benu</t>
+  </si>
+  <si>
+    <r>
+      <t>The name Benu refers to the Egyptian myth of the phoenix being reborn, but it is Korean culture that animates the restaurant, from the servers’ uniforms, which resemble the garments of Korean Buddhist monks, to the dining room textiles that evoke the sliding doors of pre-Korean-War homes. The chef Cory Lee deftly executes a menu of unusual sophistication and precision, a type of cooking that could easily seem esoteric. Instead, mussels elegantly stuffed with glass noodles, vegetables and egg cosplay as japchae, a Korean comfort dish. If by some stroke of privilege, you find yourself here more than once, the meal won’t repeat itself. There are meticulous notes being taken behind the scenes to ensure that your experience is a new one each and every time, as the name promises. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ELEANORE PARK</t>
+    </r>
+  </si>
+  <si>
+    <t>Cotogna</t>
+  </si>
+  <si>
+    <t>One of San Francisco’s hardest restaurant challenges may be finding someone who doesn’t like this Jackson Square winner, the sibling restaurant to the chef Michael Tusk’s three-Michelin-starred Quince. The coaster-size raviolo di ricotta — a single pillowy pocket that oozes tawny egg yolk when punctured — is the most photogenic of the pastas, but all are handmade and superb. The choices largely rotate, and it’s hard to go wrong, whether with crab tagliolini, corn triangoli or garganelli with morels and English peas. Mains like Petrale sole and bistecca alla Fiorentina are also very good, but get your pasta fix first. The only difficulty can be getting a table, though walking in for a late lunch is a decent bet. BRIAN GALLAGHER</t>
+  </si>
+  <si>
+    <t>Daeho Kalbijjim and Beef Soup</t>
+  </si>
+  <si>
+    <t>Kalbijjim, a comforting dish of soy-braised beef short ribs, was once reserved for royalty and aristocrats during the Joseon Dynasty, but thankfully the dish has democratized, and is now an option for weeknight dinners. At Daeho Kalbijjim and Beef Soup, it remains homey but also transforms into a dazzling spectacle, served tableside with torches to melt the crown of cheese that tops meltingly tender beef and chewy tubes of rice cake. Venture past the Japantown location to San Mateo or Milpitas, where there’s more space for dishes like the sweet pumpkin kalguksu, knife-cut noodles, and Daeho naeng myun, chewy cold buckwheat noodles in spicy beef broth. ELEANORE PARK</t>
+  </si>
+  <si>
+    <t>El Buen Comer</t>
+  </si>
+  <si>
+    <t>Isabel Caudillo has been feeding various pockets of the city for more than two decades. In 2001, she cooked for neighbors at her apartment-turned-makeshift-restaurant in the Tenderloin. Seven years later, she won a legion of fans while selling food at the Noe Valley farmers’ market. At El Buen Comer, her brick-and-mortar spot in Bernal Heights, sopes and huaraches, both vessels for stewed tinga or sautéed cactus, will reorder your thoughts about corn. The menu here nourishes, with rich moles or pambazos that come out coated in amber-tinged chile guajillo, leaving you with the feeling that you’re sharing a meal inside Ms. Caudillo’s home. ELEANORE PARK</t>
+  </si>
+  <si>
+    <t>HK Lounge Bistro</t>
+  </si>
+  <si>
+    <t>San Francisco offers an array of delicious dim sum across many neighborhoods. HK Lounge Bistro, which opened in SoMa in February, is something like a second coming for its owner, Annie Ho, after her dim sum restaurant Hong Kong Lounge II on Geary Boulevard burned down nearly four years ago. This new chapter is a faithful follow-up, with favorites like jammy pork ribs, thickly lacquered in a glossy coffee glaze, and deeply bronzed, crackly salt-and-pepper crab. Not to mention a wide spectrum of delightful dumplings that are steamed or crisped perfectly. ELEANORE PARK</t>
+  </si>
+  <si>
+    <t>Liholiho Yacht Club</t>
+  </si>
+  <si>
+    <t>Back in its original Lower Nob Hill location after three years of temporary residence in the Mission District during the pandemic, the updated space has the same freewheeling-but-refined feel. And the menu is better than ever. The chef-owner Ravi Kapur’s cooking, which he calls “heritage-driven,” teases out elements from the cultures of his Hawaiian-Chinese mother and Indian father, among other influences. Poppy-seed steamed buns huddle around little slabs of beef tongue that evoke the salty pliance of Spam, and the shaved pig’s-head salad with frisée, peanuts and yellow peaches is a feat of texture and flavor. The tropically tinged cocktails match well with the rendang curry’s tender, lamb and pillowy naan. To finish off, the baked Hawaii is a modern desert classic. BRIAN GALLAGHER</t>
+  </si>
+  <si>
+    <t>Little Shucker</t>
+  </si>
+  <si>
+    <t>Every coastal town needs a go-to raw bar. And this new seafood pavilion, in a bright, high-ceilinged space in Pacific Heights, is a lovely option. There are seafood towers and raw oysters on the half shell, of course, but also baked oysters (the one with miso and bone marrow is the move) and an airy take on onion dip (caviar addition optional). The lobster roll comes either “hot,” with the meat bathed in melted butter, or “cold,” with the meat tossed with mayonnaise. And while East Coasters will recognize these as Connecticut- and Maine-style, 3,000 miles to the west such regional rivalries fall away. Besides, they both go equally well with a glass of crisp grüner on tap. BRIAN GALLAGHER</t>
+  </si>
+  <si>
+    <t>If you were going to build a restaurant around a single dish, the whole smoked duck at the Morris would be a worthy choice. The birds, meticulously prepared at a station just inside the front door, are darkly lacquered and perfectly juicy. Beyond waterfowl, the charcuterie board — not for the faint of heart, or even the faint of cardiologist — is a wonderland of a dozen housemade meats, including spicy head cheese and jägerwurst. Produce offerings like a melon, yogurt and trout roe “nibble,” and the cucumber with spicy muhammara dip are welcome counterpoints. On the beverage front, the sommelier and co-owner, Paul Einbund, is a Chartreuse collector, scouring cellars in Europe for old bottles, and the drinks list offers vintage pours from as far back as 1912. BRIAN GALLAGHER</t>
+  </si>
+  <si>
+    <t>The Morris</t>
+  </si>
+  <si>
+    <t>Nari</t>
+  </si>
+  <si>
+    <t>The chef Pim Techamuanvivit didn’t have much to prove after opening the acclaimed Thai favorite Kin Khao in 2014. But with the help of her chef de cuisine, Meghan Clark, Ms. Techamuanvivit demonstrates a slightly more refined range at Nari — which doesn’t mean a restraint in flavors. Grilled Monterey squid and pork jowl tossed in a punchy pool of chile-lime dressing mingle with a spectrum of sour and sweet notes. Heat comes smacking in from curry dishes like gaeng bumbai eggplant topped with crispy shallots. There’s no wrong choice here: Order à la carte or let the kitchen take the reins with the chef’s menu. Keep in mind, though, that the buttery, deeply satisfying roti is exclusive to the chef’s list. ELEANORE PARK</t>
+  </si>
+  <si>
+    <t>Noodle in a Haystack</t>
+  </si>
+  <si>
+    <t>When the married couple Yoko and Clint Tan started hosting pop-ups nearly nine years ago, the eventual goal wasn’t necessarily a ramen tasting menu. But last year, when the self-taught chefs, and now owners, opened Noodle in a Haystack, they arrived at exactly that. The menu is a synchronized chorus of five to 10 thoughtful and energetic courses centered on a bowl (or two) of ramen that’s often served with a bracing and nearly clear stock — like the 15-hour, simmered at a whisper, broth of whole chickens that anchors the tori shio ramen. Such a globally recognizable dish shouldn’t hold many surprises at this point, but if you find yourself here, the ramen will leave you delightfully gobsmacked. ELEANORE PARK</t>
+  </si>
+  <si>
+    <t>Prik Hom</t>
+  </si>
+  <si>
+    <t>It’s easy to drive past the many restaurants on San Francisco’s consistently foggy Geary Boulevard. But in one of the city’s quieter quarters, the Suwanpanya siblings, Jim (the chef) and Tanya (a co-owner) deliver joyful Thai dishes that are amplified by an arsenal of seasonal abundance like local scallops kissed with chile jam and coconut cream, or grilled beef-wrap curry that unravels with a slow, slinky heat. An aromatic scoop of young coconut ice cream is perfumed by one of two dozen traditional candles that Mr. Suwanpanya brought back from Thailand, where he worked at Michelin-starred restaurants. The dessert will teleport you to every blown-out birthday candle from your youth — and that time travel alone might be every reason to visit. ELEANORE PARK</t>
+  </si>
+  <si>
+    <t>The chef-proprietors Stuart Brioza and Nicole Krasinski won national recognition when they opened State Bird Provisions in 2012. Two years later, the team opened the Progress next door, in a renovated theater with century-old bones. After nearly a decade, it still astounds, with a menu of seasonal curiosities and reliable favorites. Roast duck is the signature dish, but venture beyond it, to items like the agnolotti that cleverly melds rabbit into the filling, or the wedge of Little Gem lettuce, crusted with seeds and nuts, that is more akin to a chip-and-dip than a salad course. But really, there’s no wrong direction you can take. ELEANORE PARK</t>
+  </si>
+  <si>
+    <t>The Progress</t>
+  </si>
+  <si>
+    <t>In a city with so many worthwhile Japanese options — sushi, udon, yakitori — this Mission District spot stands out. The chef-owner, Sylvan Mishima Brackett, describes the restaurant as “a Japanese izakaya by way of California.” That means line-caught San Francisco halibut sashimi with wasabi grown in Half Moon Bay, or fried local anchovies with kumquat and spicy vinegar, or Monterey Bay squid with a nose-tingling mustard and sweet white miso dressing. The menu is copious, and you can really choose your own adventure, from noodles to katsu to sashimi. Or better still, order across the board. But don’t skip the pork gyoza with chicken-foot jelly and “wings.” It’s the dumpling-crepe hybrid you didn’t know you were missing. BRIAN GALLAGHER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shuggie’s </t>
+  </si>
+  <si>
+    <t>The vibes vibe is strong here — glittered bar top, bright yellow walls and chairs shaped like giant hands — but the food delivers. In the era of pizza-tradition stringency, this pie is boldly its own thing, though it’s closest to a grandma style. The toppings rotate seasonally, and the restaurant uses “upcycled ingredients in all our dishes,” as the website puts it, “to help mitigate the effects of food waste on climate change.” Admirable, but also very tasty, especially when it comes to dishes like shrimp-head hush puppies or the “sexy shroomy hot pocket,” made with the stems and blemished caps of mushrooms. On the pizza, you may get broccoli stalk pesto or whey vodka sauce. Of course, there’s still Good Ol Pepperoni — but adding ricotta fluff is highly advisable. BRIAN GALLAGHER</t>
+  </si>
+  <si>
+    <t>Yuanbao Jiaozi</t>
+  </si>
+  <si>
+    <t>At Yuanbao Jiaozi, beef noodle soup with baritone depths of flavor, offers a jolt of warmth that is a necessary antidote to the Outer Sunset’s seemingly ever-present fog. For balance, you might persuade yourself to order too many of the small dishes, including the texturally fantastic pig-ear salad and the peanuts with biting celery. Through a glass partition in the small dining room, diners can watch an army of dumplings being rolled out and stuffed with shiitake mushroom and fish, or chive and egg. It feels like a call to action: Order all the dumplings. ELEANORE PARK</t>
+  </si>
+  <si>
+    <t>This Japanese noodle and takeaway sushi shop is little more than a tiny kitchen a few steps away from the heart of the Financial District. But it’s attracted a faithful following for its delicious, bargain-priced udon and soba, in particular. After nearly closing in April 2022, the shop is back on its feet. “Everything” includes crispy puffed rice, seasoned bean curd, and a little dab of wasabi. Stop by Monday through Friday from 9 a.m. to 3 p.m.</t>
+  </si>
+  <si>
+    <t>Yo Yo's</t>
+  </si>
+  <si>
+    <t>Hot Sauce and Panko</t>
+  </si>
+  <si>
+    <t>This popular Russian Hill wing-slinger is a takeout- and delivery-only model, with a retail shop selling hot sauce. These are some of the most succulent, flavorful wings in town, available in a range of internationally-inspired sweet, savory, or spicy varieties — most priced around $8 for an order of five.</t>
+  </si>
+  <si>
+    <t>Kusina Ni Tess</t>
+  </si>
+  <si>
+    <t>Perhaps the friendliest and most delicious of the city’s Filipino steam table spots, Kusina Ni Tess is open Monday through Friday, 8 a.m. to 2 p.m. It’s got a daily changing menu that you should check if you’re craving something specific — say, chicken adobo (available every day except Monday). Traditional breakfast silog plates are available all day, every day, and most dishes are priced at about $10 for an average order.</t>
+  </si>
+  <si>
+    <t>Saigon Sandwich</t>
+  </si>
+  <si>
+    <t>This Larkin Street go-to for Vietnamese food has an ultra simple menu: six sandwiches, each for $5, and two tofu plates for $6.50 each. Fans love this Tenderloin shop for its cheap, loaded bánh mi sandwiches, including the pork combination of grilled pork and pate.</t>
+  </si>
+  <si>
+    <t>Taking a walk to get a $5 sandwich at this Lower Haight mainstay is just smart. The “Poor Boy” sandwich, stuffed with rotating meats and cheeses to accommodate the deli’s needs at any moment, goes for just $4.49. In an ever-more-expensive city, Falletti’s top-tier ingredients and low prices are a crucial option for any savvy shopper.</t>
+  </si>
+  <si>
+    <t>Falletti Foods</t>
+  </si>
+  <si>
+    <t>Shanghai Dumpling King</t>
+  </si>
+  <si>
+    <t>West Portal is lucky to play host to Shanghai Dumpling King and its numerous items that cost less than $10. From the tofu thread salad ($7.95) to the green onion pancake (also $7.95) to the plentiful dumpling choices (almost all just shy of $10) this is the go-to place for dumpling and deal lovers alike. </t>
+  </si>
+  <si>
+    <t>Banh Mi Crunch</t>
+  </si>
+  <si>
+    <t>The Inner Sunset’s newest go-to for banh mi took over the former Midnite Bagel space and will give customers a bonus sandwich when they buy four. Already the store is littered with teenagers, boba in hand, looking for a relatively cheap sandwich and egg roll combo.</t>
+  </si>
+  <si>
+    <t>It’s hard to beat a tremendous bowl of noodles and broth for just $9.75. Most everything on the menu at this Irving Street Vietnamese restaurant costs about $11, too, including the brisket dish chín gầu and beef ball and rice noodle combo phở bò viên.</t>
+  </si>
+  <si>
+    <t>Pho Huynh Hiep 2 - Kevin's Noodle House</t>
+  </si>
+  <si>
+    <t>At this tiny, no-frills Burmese diner, everything on the menu — from the assortment of curries to the garlicky house noodles — will run you no more than $8, cash only. It might be the best bang for your buck of any restaurant in the city.</t>
+  </si>
+  <si>
+    <t>Yamo</t>
+  </si>
+  <si>
+    <t>East Coast-style sandwiches aren’t ubiquitous in San Francisco for patently obvious reasons, which makes this Mission District shop all the more precious to its fans. The egg and cheddar sandwich goes for just $7.95, and many of its other options run just $2 more.  </t>
+  </si>
+  <si>
+    <t>Newkirk's</t>
+  </si>
+  <si>
+    <t>Tacos del Barrio</t>
+  </si>
+  <si>
+    <t>There are so many places to get affordable, excellent Mexican food in the Mission District. That said, newcomer Tacos del Barrio is sitting somewhere in the middle of the various price points. A barbacoa taco for $5 is nothing to scoff at, nor $5 consomé on the weekends.</t>
+  </si>
+  <si>
+    <t>Rinconcito Salvadoreño</t>
+  </si>
+  <si>
+    <t>For a big weekend, one might blow a wad of cash and get the pricier items at this Bernal Heights’ restaurant. Or, one could purchase a plethora of pupusas, a timeless cheap eat. On average each pupusa is just $3, and, to wash it all down, the coffee is even cheaper.</t>
+  </si>
+  <si>
+    <t>This convenience store and sandwich shop is a Parkside staple, selling hearty sandwiches for just $8.50. In fact, there are 25 different sandwiches — including vegetarian options and an Italian offering with mortadella and salami — all for just $8.50. Breakfast sandwiches cost just $3.99.</t>
+  </si>
+  <si>
+    <t>George's Zoo</t>
+  </si>
+  <si>
+    <t>This 420-friendly Bayview waffle and coffee house has stellar prices. The house blend is $3 a cup, and the vegan waffles start at $7. With a 20 percent tip included, a lucky duck of a customer could find themselves spending less than $15 for a drink, a waffle, and a seat at one of San Francisco’s sweetest little parklets.</t>
+  </si>
+  <si>
+    <t>Bloomstock</t>
+  </si>
+  <si>
+    <t>Beep's Burgers</t>
+  </si>
+  <si>
+    <t>This Space-Age-themed, ’60s-style drive-in in Ingleside serves one of the best inexpensive burgers in the city. Even during shelter-in-place, Beep’s remained open for its regular hours, offering its Twinkie milkshakes, jalapeño poppers, and roughly $8 burgers to the true believers.</t>
+  </si>
+  <si>
+    <t>Delancey Street RestaurantDelancey Street Restaurant</t>
+  </si>
+  <si>
+    <t>Delancey Street Restaurant is a training school for the Delancey Street Foundation, which is the country’s largest residential self-help organization. The restaurant is run by Delancey residents and all tips are considered donations to help feed, clothe, and support the residents so that they may lead successful lives free of drug and crime.</t>
+  </si>
+  <si>
+    <t>This classic, local favorite offers enormous portions and quality meat options for burritos, tacos, chiles rellenos, quesadillas, and more. A regular burrito with rice, beans, salsa, and meat comes to just $7.75, and the most expensive item on their menu (carne asada or alambres con camarones) barely cracks $15. It’s also a great late-night haunt, because the kitchen is open until the wee hours of the morning at most locations. Be advised that El Farolito is cash-only!</t>
+  </si>
+  <si>
+    <t>Taqueria El Farolito</t>
+  </si>
+  <si>
+    <t>Good Luck Dim Sum</t>
+  </si>
+  <si>
+    <t>Get a stack of tasty dim sum to go at this cash-only neighborhood haunt in the Inner Richmond. Choose from a wide range of dumplings, cakes, and buns that come to just $3.60 for 3, meaning you can mix and match all you want to create your own unique plate. Don’t forget to take a look at the larger items which include a plate of spare ribs for just $7.50 and salted pork in bamboo leaves for $5.</t>
+  </si>
+  <si>
+    <t>DragonEats</t>
+  </si>
+  <si>
+    <t>Just about everything on DragonEats’ Vietnamese street food menu is $9 each. This includes sandwiches, rice noodle bowls, salads, and rolls with flavors like spiced chicken, roasted pork, roasted duck, teriyaki tofu, and pork meatball. Grab a Vietnamese iced coffee or a house-made lemonade and you’re good to go.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF3B3B3B"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -414,10 +893,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -733,10 +1218,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE97F805-C418-C344-8CD4-655F1F78AAB5}">
-  <dimension ref="A1:B61"/>
+  <dimension ref="A1:B56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+      <selection activeCell="B42" sqref="A1:B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -822,7 +1307,7 @@
         <v>18</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -830,7 +1315,7 @@
         <v>19</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -934,7 +1419,7 @@
         <v>44</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -977,230 +1462,220 @@
         <v>54</v>
       </c>
     </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" t="s">
+        <v>56</v>
+      </c>
+    </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>55</v>
+        <v>57</v>
+      </c>
+      <c r="B31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B33" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B34" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B35" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B36" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B37" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B38" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B39" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B40" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B41" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B42" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B43" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="B44" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B45" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B46" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B47" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B48" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B49" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B50" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B51" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B52" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B53" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B54" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B55" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B56" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>107</v>
-      </c>
-      <c r="B57" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>109</v>
-      </c>
-      <c r="B58" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
         <v>111</v>
-      </c>
-      <c r="B59" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -1211,12 +1686,833 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E71A6774-B605-47FF-B23A-93CE04873DF9}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C74"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="C74" sqref="A24:C74"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B9" t="s">
+        <v>132</v>
+      </c>
+      <c r="C9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>137</v>
+      </c>
+      <c r="B11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>140</v>
+      </c>
+      <c r="B12" t="s">
+        <v>138</v>
+      </c>
+      <c r="C12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>141</v>
+      </c>
+      <c r="B13" t="s">
+        <v>139</v>
+      </c>
+      <c r="C13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>143</v>
+      </c>
+      <c r="B14" t="s">
+        <v>142</v>
+      </c>
+      <c r="C14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>145</v>
+      </c>
+      <c r="B15" t="s">
+        <v>144</v>
+      </c>
+      <c r="C15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>147</v>
+      </c>
+      <c r="B16" t="s">
+        <v>146</v>
+      </c>
+      <c r="C16" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>149</v>
+      </c>
+      <c r="B17" t="s">
+        <v>148</v>
+      </c>
+      <c r="C17" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>150</v>
+      </c>
+      <c r="B18" t="s">
+        <v>151</v>
+      </c>
+      <c r="C18" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>153</v>
+      </c>
+      <c r="B19" t="s">
+        <v>152</v>
+      </c>
+      <c r="C19" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>155</v>
+      </c>
+      <c r="B20" t="s">
+        <v>154</v>
+      </c>
+      <c r="C20" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>156</v>
+      </c>
+      <c r="B21" t="s">
+        <v>157</v>
+      </c>
+      <c r="C21" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>159</v>
+      </c>
+      <c r="B22" t="s">
+        <v>158</v>
+      </c>
+      <c r="C22" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>161</v>
+      </c>
+      <c r="B23" t="s">
+        <v>160</v>
+      </c>
+      <c r="C23" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>163</v>
+      </c>
+      <c r="B24" t="s">
+        <v>164</v>
+      </c>
+      <c r="C24" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>166</v>
+      </c>
+      <c r="B25" t="s">
+        <v>165</v>
+      </c>
+      <c r="C25" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>168</v>
+      </c>
+      <c r="B26" t="s">
+        <v>167</v>
+      </c>
+      <c r="C26" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>169</v>
+      </c>
+      <c r="B27" t="s">
+        <v>170</v>
+      </c>
+      <c r="C27" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>172</v>
+      </c>
+      <c r="B28" t="s">
+        <v>171</v>
+      </c>
+      <c r="C28" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>173</v>
+      </c>
+      <c r="B29" t="s">
+        <v>174</v>
+      </c>
+      <c r="C29" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>176</v>
+      </c>
+      <c r="B30" t="s">
+        <v>175</v>
+      </c>
+      <c r="C30" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>178</v>
+      </c>
+      <c r="B31" t="s">
+        <v>177</v>
+      </c>
+      <c r="C31" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>179</v>
+      </c>
+      <c r="B32" t="s">
+        <v>180</v>
+      </c>
+      <c r="C32" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>182</v>
+      </c>
+      <c r="B33" t="s">
+        <v>181</v>
+      </c>
+      <c r="C33" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>185</v>
+      </c>
+      <c r="B34" t="s">
+        <v>183</v>
+      </c>
+      <c r="C34" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>186</v>
+      </c>
+      <c r="B35" t="s">
+        <v>184</v>
+      </c>
+      <c r="C35" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>188</v>
+      </c>
+      <c r="B36" t="s">
+        <v>187</v>
+      </c>
+      <c r="C36" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>190</v>
+      </c>
+      <c r="B37" t="s">
+        <v>189</v>
+      </c>
+      <c r="C37" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>192</v>
+      </c>
+      <c r="B38" t="s">
+        <v>191</v>
+      </c>
+      <c r="C38" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>194</v>
+      </c>
+      <c r="B39" t="s">
+        <v>193</v>
+      </c>
+      <c r="C39" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>195</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C40" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>197</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C41" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>199</v>
+      </c>
+      <c r="B42" t="s">
+        <v>200</v>
+      </c>
+      <c r="C42" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>201</v>
+      </c>
+      <c r="B43" t="s">
+        <v>202</v>
+      </c>
+      <c r="C43" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>203</v>
+      </c>
+      <c r="B44" t="s">
+        <v>204</v>
+      </c>
+      <c r="C44" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>205</v>
+      </c>
+      <c r="B45" t="s">
+        <v>206</v>
+      </c>
+      <c r="C45" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>207</v>
+      </c>
+      <c r="B46" t="s">
+        <v>208</v>
+      </c>
+      <c r="C46" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>209</v>
+      </c>
+      <c r="B47" t="s">
+        <v>210</v>
+      </c>
+      <c r="C47" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>212</v>
+      </c>
+      <c r="B48" t="s">
+        <v>211</v>
+      </c>
+      <c r="C48" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>213</v>
+      </c>
+      <c r="B49" t="s">
+        <v>214</v>
+      </c>
+      <c r="C49" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>215</v>
+      </c>
+      <c r="B50" t="s">
+        <v>216</v>
+      </c>
+      <c r="C50" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>217</v>
+      </c>
+      <c r="B51" t="s">
+        <v>218</v>
+      </c>
+      <c r="C51" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>220</v>
+      </c>
+      <c r="B52" t="s">
+        <v>219</v>
+      </c>
+      <c r="C52" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>166</v>
+      </c>
+      <c r="B53" t="s">
+        <v>221</v>
+      </c>
+      <c r="C53" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>222</v>
+      </c>
+      <c r="B54" t="s">
+        <v>223</v>
+      </c>
+      <c r="C54" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>224</v>
+      </c>
+      <c r="B55" t="s">
+        <v>225</v>
+      </c>
+      <c r="C55" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>227</v>
+      </c>
+      <c r="B56" t="s">
+        <v>226</v>
+      </c>
+      <c r="C56" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>228</v>
+      </c>
+      <c r="B57" t="s">
+        <v>229</v>
+      </c>
+      <c r="C57" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>230</v>
+      </c>
+      <c r="B58" t="s">
+        <v>231</v>
+      </c>
+      <c r="C58" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>232</v>
+      </c>
+      <c r="B59" t="s">
+        <v>233</v>
+      </c>
+      <c r="C59" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>235</v>
+      </c>
+      <c r="B60" t="s">
+        <v>234</v>
+      </c>
+      <c r="C60" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>236</v>
+      </c>
+      <c r="B61" t="s">
+        <v>237</v>
+      </c>
+      <c r="C61" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>238</v>
+      </c>
+      <c r="B62" t="s">
+        <v>239</v>
+      </c>
+      <c r="C62" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>241</v>
+      </c>
+      <c r="B63" t="s">
+        <v>240</v>
+      </c>
+      <c r="C63" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>243</v>
+      </c>
+      <c r="B64" t="s">
+        <v>242</v>
+      </c>
+      <c r="C64" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>245</v>
+      </c>
+      <c r="B65" t="s">
+        <v>244</v>
+      </c>
+      <c r="C65" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>246</v>
+      </c>
+      <c r="B66" t="s">
+        <v>247</v>
+      </c>
+      <c r="C66" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>248</v>
+      </c>
+      <c r="B67" t="s">
+        <v>249</v>
+      </c>
+      <c r="C67" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>251</v>
+      </c>
+      <c r="B68" t="s">
+        <v>250</v>
+      </c>
+      <c r="C68" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>253</v>
+      </c>
+      <c r="B69" t="s">
+        <v>252</v>
+      </c>
+      <c r="C69" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>254</v>
+      </c>
+      <c r="B70" t="s">
+        <v>255</v>
+      </c>
+      <c r="C70" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>256</v>
+      </c>
+      <c r="B71" t="s">
+        <v>257</v>
+      </c>
+      <c r="C71" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>259</v>
+      </c>
+      <c r="B72" t="s">
+        <v>258</v>
+      </c>
+      <c r="C72" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>260</v>
+      </c>
+      <c r="B73" t="s">
+        <v>261</v>
+      </c>
+      <c r="C73" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>262</v>
+      </c>
+      <c r="B74" t="s">
+        <v>263</v>
+      </c>
+      <c r="C74" t="s">
+        <v>162</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1405,20 +2701,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="2e14a18b-c505-4c6d-98f8-ff022210c9ac" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="2e14a18b-c505-4c6d-98f8-ff022210c9ac" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1441,14 +2737,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{301D5AA2-DCE6-41F9-ABA3-3E4E5EA1008A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73CDCBC9-8ABF-4165-9EBF-5FE76CA3FE79}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -1463,4 +2751,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{301D5AA2-DCE6-41F9-ABA3-3E4E5EA1008A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Scraping/~DataCollect.xlsx
+++ b/Scraping/~DataCollect.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fxcker\Documents\GitHub\JourneyGenius\Scraping\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dontstealmyshxt/Desktop/UNR/Year 4/CS 425/JourneyGenius/Scraping/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{137AB631-A993-4A9C-9CB7-057D765A0C49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A6C3D1A-EA0A-0741-8B13-724629B4F6B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="21600" xr2:uid="{9D8865F4-E411-D64A-8851-B3C1FFA33487}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="18000" xr2:uid="{9D8865F4-E411-D64A-8851-B3C1FFA33487}"/>
   </bookViews>
   <sheets>
     <sheet name="Activities" sheetId="1" r:id="rId1"/>
     <sheet name="Restaurants" sheetId="2" r:id="rId2"/>
+    <sheet name="Encoding" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="267">
   <si>
     <t>Activity Type</t>
   </si>
@@ -844,12 +844,21 @@
   <si>
     <t>Just about everything on DragonEats’ Vietnamese street food menu is $9 each. This includes sandwiches, rice noodle bowls, salads, and rolls with flavors like spiced chicken, roasted pork, roasted duck, teriyaki tofu, and pork meatball. Grab a Vietnamese iced coffee or a house-made lemonade and you’re good to go.</t>
   </si>
+  <si>
+    <t>SightSeeing</t>
+  </si>
+  <si>
+    <t>Activity</t>
+  </si>
+  <si>
+    <t>Events</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -866,6 +875,14 @@
     </font>
     <font>
       <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -893,7 +910,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -901,9 +918,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1218,464 +1236,632 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE97F805-C418-C344-8CD4-655F1F78AAB5}">
-  <dimension ref="A1:B56"/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B42" sqref="A1:B56"/>
+    <sheetView tabSelected="1" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="199" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>13</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>15</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>16</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="63" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>19</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>20</v>
       </c>
       <c r="B12" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>26</v>
       </c>
       <c r="B15" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>28</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>30</v>
       </c>
       <c r="B17" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>32</v>
       </c>
       <c r="B18" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>35</v>
       </c>
       <c r="B19" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>36</v>
       </c>
       <c r="B20" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>38</v>
       </c>
       <c r="B21" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>40</v>
       </c>
       <c r="B22" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>42</v>
       </c>
       <c r="B23" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>44</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>46</v>
       </c>
       <c r="B25" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>47</v>
       </c>
       <c r="B26" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>49</v>
       </c>
       <c r="B27" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>52</v>
       </c>
       <c r="B28" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>53</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>55</v>
       </c>
       <c r="B30" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>57</v>
       </c>
       <c r="B31" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>59</v>
       </c>
       <c r="B32" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>61</v>
       </c>
       <c r="B33" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>63</v>
       </c>
       <c r="B34" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>65</v>
       </c>
       <c r="B35" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>67</v>
       </c>
       <c r="B36" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>69</v>
       </c>
       <c r="B37" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>71</v>
       </c>
       <c r="B38" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>73</v>
       </c>
       <c r="B39" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>75</v>
       </c>
       <c r="B40" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>77</v>
       </c>
       <c r="B41" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>79</v>
       </c>
       <c r="B42" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>84</v>
       </c>
       <c r="B43" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>86</v>
       </c>
       <c r="B44" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>88</v>
       </c>
       <c r="B45" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>90</v>
       </c>
       <c r="B46" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>92</v>
       </c>
       <c r="B47" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>94</v>
       </c>
       <c r="B48" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>96</v>
       </c>
       <c r="B49" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>98</v>
       </c>
       <c r="B50" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>100</v>
       </c>
       <c r="B51" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>102</v>
       </c>
       <c r="B52" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>104</v>
       </c>
       <c r="B53" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>106</v>
       </c>
       <c r="B54" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>108</v>
       </c>
       <c r="B55" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>110</v>
       </c>
       <c r="B56" t="s">
         <v>111</v>
+      </c>
+      <c r="C56" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -1688,28 +1874,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E71A6774-B605-47FF-B23A-93CE04873DF9}">
   <dimension ref="A1:C74"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="C74" sqref="A24:C74"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>116</v>
       </c>
@@ -1720,7 +1906,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>118</v>
       </c>
@@ -1731,7 +1917,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>120</v>
       </c>
@@ -1742,7 +1928,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>123</v>
       </c>
@@ -1753,7 +1939,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>127</v>
       </c>
@@ -1764,7 +1950,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>129</v>
       </c>
@@ -1775,7 +1961,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>131</v>
       </c>
@@ -1786,7 +1972,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>133</v>
       </c>
@@ -1797,7 +1983,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>135</v>
       </c>
@@ -1808,7 +1994,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>137</v>
       </c>
@@ -1819,7 +2005,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>140</v>
       </c>
@@ -1830,7 +2016,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>141</v>
       </c>
@@ -1841,7 +2027,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>143</v>
       </c>
@@ -1852,7 +2038,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>145</v>
       </c>
@@ -1863,7 +2049,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>147</v>
       </c>
@@ -1874,7 +2060,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>149</v>
       </c>
@@ -1885,7 +2071,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>150</v>
       </c>
@@ -1896,7 +2082,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>153</v>
       </c>
@@ -1907,7 +2093,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>155</v>
       </c>
@@ -1918,7 +2104,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>156</v>
       </c>
@@ -1929,7 +2115,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>159</v>
       </c>
@@ -1940,7 +2126,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>161</v>
       </c>
@@ -1951,7 +2137,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>163</v>
       </c>
@@ -1962,7 +2148,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>166</v>
       </c>
@@ -1973,7 +2159,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>168</v>
       </c>
@@ -1984,7 +2170,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>169</v>
       </c>
@@ -1995,7 +2181,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>172</v>
       </c>
@@ -2006,7 +2192,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>173</v>
       </c>
@@ -2017,7 +2203,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>176</v>
       </c>
@@ -2028,7 +2214,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>178</v>
       </c>
@@ -2039,7 +2225,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>179</v>
       </c>
@@ -2050,7 +2236,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>182</v>
       </c>
@@ -2061,7 +2247,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>185</v>
       </c>
@@ -2072,7 +2258,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>186</v>
       </c>
@@ -2083,7 +2269,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>188</v>
       </c>
@@ -2094,7 +2280,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>190</v>
       </c>
@@ -2105,7 +2291,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>192</v>
       </c>
@@ -2116,7 +2302,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>194</v>
       </c>
@@ -2127,7 +2313,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>195</v>
       </c>
@@ -2138,7 +2324,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>197</v>
       </c>
@@ -2149,7 +2335,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>199</v>
       </c>
@@ -2160,7 +2346,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>201</v>
       </c>
@@ -2171,7 +2357,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>203</v>
       </c>
@@ -2182,7 +2368,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>205</v>
       </c>
@@ -2193,7 +2379,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>207</v>
       </c>
@@ -2204,7 +2390,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>209</v>
       </c>
@@ -2215,7 +2401,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>212</v>
       </c>
@@ -2226,7 +2412,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>213</v>
       </c>
@@ -2237,7 +2423,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>215</v>
       </c>
@@ -2248,7 +2434,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>217</v>
       </c>
@@ -2259,7 +2445,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>220</v>
       </c>
@@ -2270,7 +2456,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>166</v>
       </c>
@@ -2281,7 +2467,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>222</v>
       </c>
@@ -2292,7 +2478,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>224</v>
       </c>
@@ -2303,7 +2489,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>227</v>
       </c>
@@ -2314,7 +2500,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>228</v>
       </c>
@@ -2325,7 +2511,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>230</v>
       </c>
@@ -2336,7 +2522,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>232</v>
       </c>
@@ -2347,7 +2533,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>235</v>
       </c>
@@ -2358,7 +2544,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>236</v>
       </c>
@@ -2369,7 +2555,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>238</v>
       </c>
@@ -2380,7 +2566,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>241</v>
       </c>
@@ -2391,7 +2577,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>243</v>
       </c>
@@ -2402,7 +2588,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>245</v>
       </c>
@@ -2413,7 +2599,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>246</v>
       </c>
@@ -2424,7 +2610,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>248</v>
       </c>
@@ -2435,7 +2621,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>251</v>
       </c>
@@ -2446,7 +2632,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>253</v>
       </c>
@@ -2457,7 +2643,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>254</v>
       </c>
@@ -2468,7 +2654,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>256</v>
       </c>
@@ -2479,7 +2665,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>259</v>
       </c>
@@ -2490,7 +2676,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>260</v>
       </c>
@@ -2501,7 +2687,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>262</v>
       </c>
@@ -2510,6 +2696,311 @@
       </c>
       <c r="C74" t="s">
         <v>162</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B463BE3-693D-7849-953C-B5BBCEC98400}">
+  <dimension ref="A1:C28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>106</v>
+      </c>
+      <c r="B13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" t="s">
+        <v>100</v>
+      </c>
+      <c r="C23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" t="s">
+        <v>102</v>
+      </c>
+      <c r="C24" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -2701,20 +3192,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="2e14a18b-c505-4c6d-98f8-ff022210c9ac" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="2e14a18b-c505-4c6d-98f8-ff022210c9ac" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2737,6 +3228,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{301D5AA2-DCE6-41F9-ABA3-3E4E5EA1008A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73CDCBC9-8ABF-4165-9EBF-5FE76CA3FE79}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -2751,12 +3250,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{301D5AA2-DCE6-41F9-ABA3-3E4E5EA1008A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>